--- a/total.xlsx
+++ b/total.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5589BE-FEE8-4575-8E38-699B779DC030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D29E67-E59B-4E62-BD62-415316799AC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,8 +102,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -387,50 +393,51 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.296875" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" customWidth="1"/>
-    <col min="4" max="4" width="36.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="17.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
